--- a/result.xlsx
+++ b/result.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ファイルと画像の一覧" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +27,6 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,14 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -213,19 +207,1844 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>1</col>
       <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>17</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>21</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>24</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>25</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>26</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>27</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>28</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>30</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>35</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>36</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>37</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>38</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>39</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>40</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>41</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>42</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>43</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>44</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>45</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>46</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId60"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>47</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId61"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>48</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>49</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId63"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>50</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId64"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>51</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId65"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId66"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId67"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId68"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId69"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="70" name="Image 70" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId70"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="71" name="Image 71" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId71"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="72" name="Image 72" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId72"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="73" name="Image 73" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId73"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="74" name="Image 74" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId74"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="75" name="Image 75" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId75"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="76" name="Image 76" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId76"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="77" name="Image 77" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId77"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -246,11 +2065,11 @@
     <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <cNvPr id="78" name="Image 78" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId78"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -271,11 +2090,11 @@
     <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <cNvPr id="79" name="Image 79" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId79"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -290,17 +2109,2567 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="80" name="Image 80" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId80"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="81" name="Image 81" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId81"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="82" name="Image 82" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId82"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="83" name="Image 83" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId83"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="84" name="Image 84" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId84"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="85" name="Image 85" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId85"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="86" name="Image 86" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId86"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="87" name="Image 87" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId87"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="88" name="Image 88" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId88"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="89" name="Image 89" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId89"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="90" name="Image 90" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId90"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="91" name="Image 91" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId91"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="92" name="Image 92" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId92"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="93" name="Image 93" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId93"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="94" name="Image 94" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId94"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="95" name="Image 95" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId95"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>17</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="96" name="Image 96" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId96"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="97" name="Image 97" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId97"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="98" name="Image 98" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId98"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="99" name="Image 99" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId99"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>21</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="100" name="Image 100" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId100"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="101" name="Image 101" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId101"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="102" name="Image 102" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId102"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>24</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="103" name="Image 103" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId103"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>25</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="104" name="Image 104" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId104"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>26</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="105" name="Image 105" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId105"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>27</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="106" name="Image 106" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId106"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>28</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="107" name="Image 107" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId107"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="108" name="Image 108" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId108"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>30</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="109" name="Image 109" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId109"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="110" name="Image 110" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId110"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="111" name="Image 111" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId111"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="112" name="Image 112" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId112"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="113" name="Image 113" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId113"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>35</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="114" name="Image 114" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId114"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>36</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="115" name="Image 115" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId115"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>37</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="116" name="Image 116" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId116"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>38</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="117" name="Image 117" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId117"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>39</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="118" name="Image 118" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId118"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>40</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="119" name="Image 119" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId119"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>41</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="120" name="Image 120" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId120"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>42</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="121" name="Image 121" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId121"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>43</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="122" name="Image 122" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId122"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>44</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="123" name="Image 123" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId123"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>45</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="124" name="Image 124" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId124"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>46</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="125" name="Image 125" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId125"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>47</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="126" name="Image 126" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId126"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>48</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="127" name="Image 127" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId127"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>49</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="128" name="Image 128" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId128"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>50</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="129" name="Image 129" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId129"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>51</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="130" name="Image 130" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId130"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="131" name="Image 131" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId131"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="132" name="Image 132" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId132"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="133" name="Image 133" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId133"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="134" name="Image 134" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId134"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="135" name="Image 135" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId135"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="136" name="Image 136" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId136"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="137" name="Image 137" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId137"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="138" name="Image 138" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId138"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="139" name="Image 139" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId139"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="140" name="Image 140" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId140"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="141" name="Image 141" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId141"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="142" name="Image 142" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId142"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="143" name="Image 143" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId143"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="144" name="Image 144" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId144"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="145" name="Image 145" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId145"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="146" name="Image 146" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId146"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>17</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="147" name="Image 147" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId147"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="148" name="Image 148" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId148"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="149" name="Image 149" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId149"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="150" name="Image 150" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId150"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>21</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="151" name="Image 151" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId151"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="152" name="Image 152" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId152"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="153" name="Image 153" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId153"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>24</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="154" name="Image 154" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId154"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>25</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="155" name="Image 155" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId155"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>26</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="156" name="Image 156" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId156"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>27</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="157" name="Image 157" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId157"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>28</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="158" name="Image 158" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId158"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="159" name="Image 159" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId159"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>30</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="160" name="Image 160" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId160"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="161" name="Image 161" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId161"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="162" name="Image 162" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId162"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="163" name="Image 163" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId163"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="164" name="Image 164" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId164"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>35</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="165" name="Image 165" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId165"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>36</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="166" name="Image 166" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId166"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>37</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="167" name="Image 167" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId167"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>38</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="168" name="Image 168" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId168"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>39</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="169" name="Image 169" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId169"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>40</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="170" name="Image 170" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId170"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>41</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="171" name="Image 171" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId171"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>42</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="172" name="Image 172" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId172"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>43</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="173" name="Image 173" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId173"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>44</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="174" name="Image 174" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId174"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>45</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="175" name="Image 175" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId175"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>46</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="176" name="Image 176" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId176"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>47</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="177" name="Image 177" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId177"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>48</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="178" name="Image 178" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId178"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>49</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="179" name="Image 179" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId179"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>50</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="180" name="Image 180" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId180"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>51</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="181" name="Image 181" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId181"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <cNvPr id="182" name="Image 182" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId182"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -321,11 +4690,11 @@
     <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <cNvPr id="183" name="Image 183" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId183"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -346,11 +4715,286 @@
     <ext cx="952500" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <cNvPr id="184" name="Image 184" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId184"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="185" name="Image 185" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId185"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="186" name="Image 186" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId186"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="187" name="Image 187" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId187"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="188" name="Image 188" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId188"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="189" name="Image 189" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId189"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="190" name="Image 190" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId190"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="191" name="Image 191" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId191"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="192" name="Image 192" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId192"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="193" name="Image 193" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId193"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="194" name="Image 194" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId194"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="195" name="Image 195" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId195"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -661,9 +5305,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14.28571428571429" customWidth="1" min="2" max="2"/>
+    <col width="14.28571428571429" customWidth="1" min="3" max="3"/>
+    <col width="14.28571428571429" customWidth="1" min="4" max="4"/>
+    <col width="14.28571428571429" customWidth="1" min="5" max="5"/>
+    <col width="14.28571428571429" customWidth="1" min="6" max="6"/>
+    <col width="14.28571428571429" customWidth="1" min="7" max="7"/>
+    <col width="14.28571428571429" customWidth="1" min="8" max="8"/>
+    <col width="14.28571428571429" customWidth="1" min="9" max="9"/>
+    <col width="14.28571428571429" customWidth="1" min="10" max="10"/>
+    <col width="14.28571428571429" customWidth="1" min="11" max="11"/>
+    <col width="14.28571428571429" customWidth="1" min="12" max="12"/>
+    <col width="14.28571428571429" customWidth="1" min="13" max="13"/>
+    <col width="14.28571428571429" customWidth="1" min="14" max="14"/>
+    <col width="14.28571428571429" customWidth="1" min="15" max="15"/>
+    <col width="14.28571428571429" customWidth="1" min="16" max="16"/>
+    <col width="14.28571428571429" customWidth="1" min="17" max="17"/>
+    <col width="14.28571428571429" customWidth="1" min="18" max="18"/>
+    <col width="14.28571428571429" customWidth="1" min="19" max="19"/>
+    <col width="14.28571428571429" customWidth="1" min="20" max="20"/>
+    <col width="14.28571428571429" customWidth="1" min="21" max="21"/>
+    <col width="14.28571428571429" customWidth="1" min="22" max="22"/>
+    <col width="14.28571428571429" customWidth="1" min="23" max="23"/>
+    <col width="14.28571428571429" customWidth="1" min="24" max="24"/>
+    <col width="14.28571428571429" customWidth="1" min="25" max="25"/>
+    <col width="14.28571428571429" customWidth="1" min="26" max="26"/>
+    <col width="14.28571428571429" customWidth="1" min="27" max="27"/>
+    <col width="14.28571428571429" customWidth="1" min="28" max="28"/>
+    <col width="14.28571428571429" customWidth="1" min="29" max="29"/>
+    <col width="14.28571428571429" customWidth="1" min="30" max="30"/>
+    <col width="14.28571428571429" customWidth="1" min="31" max="31"/>
+    <col width="14.28571428571429" customWidth="1" min="32" max="32"/>
+    <col width="14.28571428571429" customWidth="1" min="33" max="33"/>
+    <col width="14.28571428571429" customWidth="1" min="34" max="34"/>
+    <col width="14.28571428571429" customWidth="1" min="35" max="35"/>
+    <col width="14.28571428571429" customWidth="1" min="36" max="36"/>
+    <col width="14.28571428571429" customWidth="1" min="37" max="37"/>
+    <col width="14.28571428571429" customWidth="1" min="38" max="38"/>
+    <col width="14.28571428571429" customWidth="1" min="39" max="39"/>
+    <col width="14.28571428571429" customWidth="1" min="40" max="40"/>
+    <col width="14.28571428571429" customWidth="1" min="41" max="41"/>
+    <col width="14.28571428571429" customWidth="1" min="42" max="42"/>
+    <col width="14.28571428571429" customWidth="1" min="43" max="43"/>
+    <col width="14.28571428571429" customWidth="1" min="44" max="44"/>
+    <col width="14.28571428571429" customWidth="1" min="45" max="45"/>
+    <col width="14.28571428571429" customWidth="1" min="46" max="46"/>
+    <col width="14.28571428571429" customWidth="1" min="47" max="47"/>
+    <col width="14.28571428571429" customWidth="1" min="48" max="48"/>
+    <col width="14.28571428571429" customWidth="1" min="49" max="49"/>
+    <col width="14.28571428571429" customWidth="1" min="50" max="50"/>
+    <col width="14.28571428571429" customWidth="1" min="51" max="51"/>
+    <col width="14.28571428571429" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -673,64 +5365,64 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="75.18796992481202" customHeight="1">
+      <c r="A2" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\A\A_sample_B (1).docx</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="75.18796992481202" customHeight="1">
+      <c r="A3" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\A\A_sample_B (1).pdf</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="4" ht="75.18796992481202" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\A\A_sample_B (2).pdf</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="5" ht="75.18796992481202" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\A\B\AB_sample_B (1).pdf</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+    <row r="6" ht="75.18796992481202" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\A\B\AB_sample_B (2).docx</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="7" ht="75.18796992481202" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\A\B\AB_sample_B (2).pdf</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+    <row r="8" ht="75.18796992481202" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\sample.pdf</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="9" ht="75.18796992481202" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\sample2020.docx</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
+    <row r="10" ht="75.18796992481202" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>C:\Users\dorem\Documents\Obsidian\MyProjects\desktopApp\view_word_pdf_img\target\samples\sample_B.pdf</t>
         </is>
